--- a/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8E43C5D-B842-4C9E-9CBA-EEDFFD7C3C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59A267A-5865-4148-BB17-9E57702835D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{92B0F04D-DCC1-497B-883E-740C8D903704}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3B1E62A-D806-484E-93C9-B322704B07EF}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="269">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,769 +74,772 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>71,58%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,17%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
   </si>
   <si>
     <t>0,69%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
+    <t>4,53%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54EBFB7D-109F-4F99-B7BC-721515A7E646}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7F3E72-67B2-4EE9-92D7-1CCDD6472374}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1767,10 +1770,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1785,13 +1788,13 @@
         <v>4362</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1803,10 +1806,10 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -1818,10 +1821,10 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1836,13 +1839,13 @@
         <v>3446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1851,13 +1854,13 @@
         <v>1490</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1866,13 +1869,13 @@
         <v>4936</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,13 +1890,13 @@
         <v>5126</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1902,13 +1905,13 @@
         <v>2012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1917,13 +1920,13 @@
         <v>7138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1941,13 @@
         <v>4687</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1953,13 +1956,13 @@
         <v>1898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>91</v>
+        <v>31</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -1968,13 +1971,13 @@
         <v>6585</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1992,13 @@
         <v>508660</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>943</v>
@@ -2004,13 +2007,13 @@
         <v>563355</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1516</v>
@@ -2019,13 +2022,13 @@
         <v>1072015</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,7 +2084,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2093,13 +2096,13 @@
         <v>28002</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -2108,13 +2111,13 @@
         <v>40025</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -2123,13 +2126,13 @@
         <v>68027</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2144,13 +2147,13 @@
         <v>15913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2159,13 +2162,13 @@
         <v>11672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -2174,13 +2177,13 @@
         <v>27586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,13 +2198,13 @@
         <v>8777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2210,13 +2213,13 @@
         <v>9902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2225,13 +2228,13 @@
         <v>18679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>39</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,13 +2249,13 @@
         <v>17971</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2261,13 +2264,13 @@
         <v>6469</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2276,13 +2279,13 @@
         <v>24441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2297,13 +2300,13 @@
         <v>60832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2312,13 +2315,13 @@
         <v>2663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2327,13 +2330,13 @@
         <v>63495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2348,13 +2351,13 @@
         <v>907753</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>1416</v>
@@ -2363,13 +2366,13 @@
         <v>988116</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>2315</v>
@@ -2378,13 +2381,13 @@
         <v>1895869</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,7 +2443,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2452,13 +2455,13 @@
         <v>30734</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2467,13 +2470,13 @@
         <v>24893</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -2482,13 +2485,13 @@
         <v>55628</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,10 +2509,10 @@
         <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2518,13 +2521,13 @@
         <v>6187</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -2533,13 +2536,13 @@
         <v>26810</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,13 +2557,13 @@
         <v>8686</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2569,13 +2572,13 @@
         <v>8113</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K27" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2584,13 +2587,13 @@
         <v>16799</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,10 +2611,10 @@
         <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2620,13 +2623,13 @@
         <v>6699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2635,13 +2638,13 @@
         <v>15997</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,13 +2659,13 @@
         <v>3159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2671,13 +2674,13 @@
         <v>7043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2686,13 +2689,13 @@
         <v>10202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2710,13 @@
         <v>656111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>94</v>
       </c>
       <c r="H30" s="7">
         <v>998</v>
@@ -2722,13 +2725,13 @@
         <v>821435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="M30" s="7">
         <v>1618</v>
@@ -2737,13 +2740,13 @@
         <v>1477547</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2799,7 +2802,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2811,13 +2814,13 @@
         <v>26745</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -2826,13 +2829,13 @@
         <v>36641</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>198</v>
+        <v>160</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -2841,13 +2844,13 @@
         <v>63386</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2865,13 @@
         <v>11051</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -2877,13 +2880,13 @@
         <v>19966</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="M33" s="7">
         <v>31</v>
@@ -2892,13 +2895,13 @@
         <v>31017</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,13 +2916,13 @@
         <v>17566</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -2928,13 +2931,13 @@
         <v>7217</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>135</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -2943,13 +2946,13 @@
         <v>24783</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2964,13 +2967,13 @@
         <v>5671</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -2979,13 +2982,13 @@
         <v>11079</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -2994,13 +2997,13 @@
         <v>16750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>217</v>
+        <v>123</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,13 +3018,13 @@
         <v>7256</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>25</v>
+        <v>112</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>92</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3030,13 +3033,13 @@
         <v>5013</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -3045,13 +3048,13 @@
         <v>12269</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>85</v>
+        <v>186</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,13 +3069,13 @@
         <v>889559</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>1463</v>
@@ -3081,13 +3084,13 @@
         <v>1065929</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>2398</v>
@@ -3096,13 +3099,13 @@
         <v>1955488</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,13 +3173,13 @@
         <v>114039</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>234</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H39" s="7">
         <v>189</v>
@@ -3185,13 +3188,13 @@
         <v>125646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M39" s="7">
         <v>295</v>
@@ -3200,13 +3203,13 @@
         <v>239685</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3221,13 +3224,13 @@
         <v>53180</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -3236,13 +3239,13 @@
         <v>45461</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>122</v>
+        <v>246</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
       <c r="M40" s="7">
         <v>104</v>
@@ -3251,13 +3254,13 @@
         <v>98641</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>27</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3272,13 +3275,13 @@
         <v>39382</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>25</v>
+        <v>183</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -3287,13 +3290,13 @@
         <v>26722</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>245</v>
+        <v>28</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>169</v>
+        <v>250</v>
       </c>
       <c r="M41" s="7">
         <v>61</v>
@@ -3302,13 +3305,13 @@
         <v>66103</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>248</v>
+        <v>28</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3323,13 +3326,13 @@
         <v>38066</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>138</v>
+        <v>252</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>251</v>
+        <v>27</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3338,13 +3341,13 @@
         <v>26260</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="M42" s="7">
         <v>53</v>
@@ -3356,10 +3359,10 @@
         <v>31</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>165</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3377,13 @@
         <v>78906</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>253</v>
+        <v>150</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>28</v>
+        <v>254</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
@@ -3389,13 +3392,13 @@
         <v>16617</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M43" s="7">
         <v>32</v>
@@ -3404,13 +3407,13 @@
         <v>95523</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3428,13 @@
         <v>3051637</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H44" s="7">
         <v>5041</v>
@@ -3440,13 +3443,13 @@
         <v>3560106</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M44" s="7">
         <v>8175</v>
@@ -3455,13 +3458,13 @@
         <v>6611743</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3476,7 @@
         <v>3366</v>
       </c>
       <c r="D45" s="7">
-        <v>3375211</v>
+        <v>3375210</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>55</v>
@@ -3517,7 +3520,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E59A267A-5865-4148-BB17-9E57702835D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B985C47E-7973-4A92-908E-A26BB363E91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3B1E62A-D806-484E-93C9-B322704B07EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA4AEB8-E3F9-48AA-B887-11D423C33537}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No fumo, aunque he fumado antes pero no diariamente</t>
@@ -206,7 +206,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -347,7 +347,7 @@
     <t>95,34%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>2,69%</t>
@@ -482,7 +482,7 @@
     <t>93,07%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>4,22%</t>
@@ -1254,7 +1254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B7F3E72-67B2-4EE9-92D7-1CCDD6472374}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83684AEB-D944-4E75-979E-A30669C7335D}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B985C47E-7973-4A92-908E-A26BB363E91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34DAA97-8CB1-48D9-AC52-3B475381F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5CA4AEB8-E3F9-48AA-B887-11D423C33537}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8351B16-C3DA-41F0-AD89-7C46239CED6A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="268">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>6,18%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
   </si>
   <si>
     <t>4,96%</t>
   </si>
   <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>5,49%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
   </si>
   <si>
     <t>No fumo, pero he fumado antes diariamente</t>
@@ -107,739 +107,736 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,54%</t>
+    <t>5,91%</t>
   </si>
   <si>
     <t>2,28%</t>
   </si>
   <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>78,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>90,65%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
   </si>
   <si>
     <t>0,42%</t>
   </si>
   <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>71,58%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
+    <t>4,34%</t>
   </si>
   <si>
     <t>90,41%</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>93,67%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
   </si>
   <si>
     <t>92,14%</t>
   </si>
   <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1254,7 +1251,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83684AEB-D944-4E75-979E-A30669C7335D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520657CA-7CDE-4728-808D-E5A4740AA939}">
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1770,10 +1767,10 @@
         <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1788,13 +1785,13 @@
         <v>4362</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -1806,10 +1803,10 @@
         <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>11</v>
@@ -1821,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1839,13 +1836,13 @@
         <v>3446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -1854,13 +1851,13 @@
         <v>1490</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -1869,13 +1866,13 @@
         <v>4936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1890,13 +1887,13 @@
         <v>5126</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1905,13 +1902,13 @@
         <v>2012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -1920,13 +1917,13 @@
         <v>7138</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,13 +1938,13 @@
         <v>4687</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -1956,13 +1953,13 @@
         <v>1898</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>90</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -1971,13 +1968,13 @@
         <v>6585</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1992,13 +1989,13 @@
         <v>508660</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>943</v>
@@ -2007,13 +2004,13 @@
         <v>563355</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M16" s="7">
         <v>1516</v>
@@ -2022,13 +2019,13 @@
         <v>1072015</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2084,7 +2081,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -2096,13 +2093,13 @@
         <v>28002</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H18" s="7">
         <v>66</v>
@@ -2111,13 +2108,13 @@
         <v>40025</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M18" s="7">
         <v>94</v>
@@ -2126,13 +2123,13 @@
         <v>68027</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2147,13 +2144,13 @@
         <v>15913</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -2162,13 +2159,13 @@
         <v>11672</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M19" s="7">
         <v>27</v>
@@ -2177,13 +2174,13 @@
         <v>27586</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2198,13 +2195,13 @@
         <v>8777</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H20" s="7">
         <v>10</v>
@@ -2213,13 +2210,13 @@
         <v>9902</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M20" s="7">
         <v>16</v>
@@ -2228,13 +2225,13 @@
         <v>18679</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>124</v>
+        <v>39</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2249,13 +2246,13 @@
         <v>17971</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
@@ -2264,13 +2261,13 @@
         <v>6469</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="M21" s="7">
         <v>20</v>
@@ -2279,13 +2276,13 @@
         <v>24441</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2300,13 +2297,13 @@
         <v>60832</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2315,13 +2312,13 @@
         <v>2663</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="M22" s="7">
         <v>7</v>
@@ -2330,13 +2327,13 @@
         <v>63495</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>137</v>
+        <v>35</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,13 +2348,13 @@
         <v>907753</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H23" s="7">
         <v>1416</v>
@@ -2366,13 +2363,13 @@
         <v>988116</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="M23" s="7">
         <v>2315</v>
@@ -2381,13 +2378,13 @@
         <v>1895869</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,7 +2440,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2455,13 +2452,13 @@
         <v>30734</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H25" s="7">
         <v>24</v>
@@ -2470,13 +2467,13 @@
         <v>24893</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M25" s="7">
         <v>42</v>
@@ -2485,13 +2482,13 @@
         <v>55628</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2509,10 +2506,10 @@
         <v>158</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2521,13 +2518,13 @@
         <v>6187</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M26" s="7">
         <v>29</v>
@@ -2536,13 +2533,13 @@
         <v>26810</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,13 +2554,13 @@
         <v>8686</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -2572,13 +2569,13 @@
         <v>8113</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2587,13 +2584,13 @@
         <v>16799</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2611,10 +2608,10 @@
         <v>43</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2623,13 +2620,13 @@
         <v>6699</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>176</v>
+        <v>66</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -2638,13 +2635,13 @@
         <v>15997</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,13 +2656,13 @@
         <v>3159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
@@ -2674,13 +2671,13 @@
         <v>7043</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -2689,13 +2686,13 @@
         <v>10202</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2710,13 +2707,13 @@
         <v>656111</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>186</v>
       </c>
       <c r="H30" s="7">
         <v>998</v>
@@ -2725,13 +2722,13 @@
         <v>821435</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M30" s="7">
         <v>1618</v>
@@ -2740,13 +2737,13 @@
         <v>1477547</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2802,7 +2799,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2814,13 +2811,13 @@
         <v>26745</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H32" s="7">
         <v>47</v>
@@ -2829,13 +2826,13 @@
         <v>36641</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="M32" s="7">
         <v>76</v>
@@ -2844,13 +2841,13 @@
         <v>63386</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>74</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2862,13 @@
         <v>11051</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H33" s="7">
         <v>19</v>
@@ -2880,13 +2877,13 @@
         <v>19966</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>207</v>
+        <v>31</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M33" s="7">
         <v>31</v>
@@ -2895,13 +2892,13 @@
         <v>31017</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>210</v>
+        <v>80</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2916,13 +2913,13 @@
         <v>17566</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H34" s="7">
         <v>11</v>
@@ -2931,13 +2928,13 @@
         <v>7217</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>135</v>
+        <v>210</v>
       </c>
       <c r="M34" s="7">
         <v>26</v>
@@ -2946,13 +2943,13 @@
         <v>24783</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>211</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2967,13 +2964,13 @@
         <v>5671</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>10</v>
@@ -2982,13 +2979,13 @@
         <v>11079</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>179</v>
+        <v>70</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="M35" s="7">
         <v>15</v>
@@ -2997,13 +2994,13 @@
         <v>16750</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>123</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,13 +3015,13 @@
         <v>7256</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>92</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>6</v>
@@ -3033,13 +3030,13 @@
         <v>5013</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M36" s="7">
         <v>9</v>
@@ -3048,13 +3045,13 @@
         <v>12269</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>186</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3069,13 +3066,13 @@
         <v>889559</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H37" s="7">
         <v>1463</v>
@@ -3084,13 +3081,13 @@
         <v>1065929</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M37" s="7">
         <v>2398</v>
@@ -3099,13 +3096,13 @@
         <v>1955488</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3173,13 +3170,13 @@
         <v>114039</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>234</v>
+        <v>18</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H39" s="7">
         <v>189</v>
@@ -3188,13 +3185,13 @@
         <v>125646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M39" s="7">
         <v>295</v>
@@ -3203,13 +3200,13 @@
         <v>239685</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3224,13 +3221,13 @@
         <v>53180</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="H40" s="7">
         <v>52</v>
@@ -3239,13 +3236,13 @@
         <v>45461</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>246</v>
+        <v>122</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="M40" s="7">
         <v>104</v>
@@ -3254,13 +3251,13 @@
         <v>98641</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>114</v>
+        <v>243</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3275,13 +3272,13 @@
         <v>39382</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>183</v>
+        <v>25</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>126</v>
+        <v>204</v>
       </c>
       <c r="H41" s="7">
         <v>31</v>
@@ -3290,13 +3287,13 @@
         <v>26722</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>28</v>
+        <v>245</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="M41" s="7">
         <v>61</v>
@@ -3305,13 +3302,13 @@
         <v>66103</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>28</v>
+        <v>248</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3323,13 @@
         <v>38066</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>27</v>
+        <v>251</v>
       </c>
       <c r="H42" s="7">
         <v>24</v>
@@ -3341,13 +3338,13 @@
         <v>26260</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>123</v>
+        <v>252</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="M42" s="7">
         <v>53</v>
@@ -3359,10 +3356,10 @@
         <v>31</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>255</v>
+        <v>181</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>85</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3377,13 +3374,13 @@
         <v>78906</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>150</v>
+        <v>253</v>
       </c>
       <c r="F43" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H43" s="7">
         <v>17</v>
@@ -3392,13 +3389,13 @@
         <v>16617</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M43" s="7">
         <v>32</v>
@@ -3407,13 +3404,13 @@
         <v>95523</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -3428,13 +3425,13 @@
         <v>3051637</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H44" s="7">
         <v>5041</v>
@@ -3443,13 +3440,13 @@
         <v>3560106</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M44" s="7">
         <v>8175</v>
@@ -3458,13 +3455,13 @@
         <v>6611743</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3473,7 @@
         <v>3366</v>
       </c>
       <c r="D45" s="7">
-        <v>3375210</v>
+        <v>3375211</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>55</v>
@@ -3520,7 +3517,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E34DAA97-8CB1-48D9-AC52-3B475381F871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383B687F-59C2-4B52-A514-FCEB6FC556BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C8351B16-C3DA-41F0-AD89-7C46239CED6A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4A82C9D7-005C-4BBE-B151-8E3CCA98DD70}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="227">
   <si>
     <t>Población según la forma de consumir tabaco no tradicional (electrónico) en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -65,778 +65,655 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>No fumo, aunque he fumado antes pero no diariamente</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>No fumo, pero he fumado antes diariamente</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>Fumo diariamente</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>Fumo alguna vez a la semana, pero no diariamente</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>Fumo menos de una vez a la semana</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>No he fumado nunca</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>44,46%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>89,81%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
     <t>8,06%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>No fumo, pero he fumado antes diariamente</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>Fumo diariamente</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>Fumo alguna vez a la semana, pero no diariamente</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>Fumo menos de una vez a la semana</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>No he fumado nunca</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>81,06%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>65,85%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1251,8 +1128,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{520657CA-7CDE-4728-808D-E5A4740AA939}">
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1947036D-A594-4002-B058-CD42EBE21729}">
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1369,10 +1246,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="D4" s="7">
-        <v>6241</v>
+        <v>27896</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1384,10 +1261,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="I4" s="7">
-        <v>6486</v>
+        <v>22519</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1399,10 +1276,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="N4" s="7">
-        <v>12727</v>
+        <v>50416</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1420,10 +1297,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1230</v>
+        <v>4906</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1435,10 +1312,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>2975</v>
+        <v>7276</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1450,10 +1327,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="N5" s="7">
-        <v>4206</v>
+        <v>12182</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1471,202 +1348,202 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>907</v>
+        <v>4286</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
+        <v>1464</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N6" s="7">
-        <v>907</v>
+        <v>5750</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>0</v>
+        <v>4840</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>6546</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>2973</v>
+        <v>11987</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>1660</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>2973</v>
+        <v>13647</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>680</v>
       </c>
       <c r="D9" s="7">
-        <v>89554</v>
+        <v>579241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
-        <v>221</v>
+        <v>1164</v>
       </c>
       <c r="I9" s="7">
-        <v>121271</v>
+        <v>639326</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M9" s="7">
-        <v>328</v>
+        <v>1844</v>
       </c>
       <c r="N9" s="7">
-        <v>210826</v>
+        <v>1218568</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1675,102 +1552,102 @@
         <v>3</v>
       </c>
       <c r="C10" s="7">
-        <v>117</v>
+        <v>728</v>
       </c>
       <c r="D10" s="7">
-        <v>100905</v>
+        <v>633158</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H10" s="7">
-        <v>243</v>
+        <v>1236</v>
       </c>
       <c r="I10" s="7">
-        <v>130733</v>
+        <v>673951</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>360</v>
+        <v>1964</v>
       </c>
       <c r="N10" s="7">
-        <v>231638</v>
+        <v>1307109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="7">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>22318</v>
+        <v>26276</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="H11" s="7">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="I11" s="7">
-        <v>17600</v>
+        <v>36037</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="N11" s="7">
-        <v>39918</v>
+        <v>62313</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,49 +1656,49 @@
         <v>20</v>
       </c>
       <c r="C12" s="7">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D12" s="7">
-        <v>4362</v>
+        <v>16164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>4660</v>
+        <v>10621</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N12" s="7">
-        <v>9022</v>
+        <v>26785</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,202 +1707,202 @@
         <v>30</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7">
-        <v>3446</v>
+        <v>7800</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I13" s="7">
-        <v>1490</v>
+        <v>8732</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="N13" s="7">
-        <v>4936</v>
+        <v>16532</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D14" s="7">
-        <v>5126</v>
+        <v>18767</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>2012</v>
+        <v>5442</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="N14" s="7">
-        <v>7138</v>
+        <v>24209</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="7">
-        <v>4687</v>
+        <v>255262</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="H15" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="7">
-        <v>1898</v>
+        <v>2416</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M15" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N15" s="7">
-        <v>6585</v>
+        <v>257678</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7">
-        <v>573</v>
+        <v>899</v>
       </c>
       <c r="D16" s="7">
-        <v>508660</v>
+        <v>868595</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H16" s="7">
-        <v>943</v>
+        <v>1416</v>
       </c>
       <c r="I16" s="7">
-        <v>563355</v>
+        <v>894279</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>1516</v>
+        <v>2315</v>
       </c>
       <c r="N16" s="7">
-        <v>1072015</v>
+        <v>1762875</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,102 +1911,102 @@
         <v>3</v>
       </c>
       <c r="C17" s="7">
-        <v>611</v>
+        <v>964</v>
       </c>
       <c r="D17" s="7">
-        <v>548599</v>
+        <v>1192864</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
-        <v>993</v>
+        <v>1515</v>
       </c>
       <c r="I17" s="7">
-        <v>591014</v>
+        <v>957527</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
-        <v>1604</v>
+        <v>2479</v>
       </c>
       <c r="N17" s="7">
-        <v>1139613</v>
+        <v>2150391</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D18" s="7">
-        <v>28002</v>
+        <v>31039</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="I18" s="7">
-        <v>40025</v>
+        <v>22003</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="N18" s="7">
-        <v>68027</v>
+        <v>53041</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,49 +2015,49 @@
         <v>20</v>
       </c>
       <c r="C19" s="7">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>15913</v>
+        <v>19695</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H19" s="7">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="I19" s="7">
-        <v>11672</v>
+        <v>5977</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="M19" s="7">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N19" s="7">
-        <v>27586</v>
+        <v>25672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,88 +2069,88 @@
         <v>6</v>
       </c>
       <c r="D20" s="7">
-        <v>8777</v>
+        <v>8608</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I20" s="7">
-        <v>9902</v>
+        <v>7031</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>18679</v>
+        <v>15640</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C21" s="7">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D21" s="7">
-        <v>17971</v>
+        <v>9001</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="H21" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I21" s="7">
-        <v>6469</v>
+        <v>5742</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="M21" s="7">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="N21" s="7">
-        <v>24441</v>
+        <v>14743</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>133</v>
@@ -2288,103 +2165,103 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="7">
-        <v>60832</v>
+        <v>3415</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>136</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H22" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I22" s="7">
-        <v>2663</v>
+        <v>6549</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="N22" s="7">
-        <v>63495</v>
+        <v>9963</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>92</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C23" s="7">
-        <v>899</v>
+        <v>620</v>
       </c>
       <c r="D23" s="7">
-        <v>907753</v>
+        <v>632758</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
-        <v>1416</v>
+        <v>998</v>
       </c>
       <c r="I23" s="7">
-        <v>988116</v>
+        <v>886065</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
-        <v>2315</v>
+        <v>1618</v>
       </c>
       <c r="N23" s="7">
-        <v>1895869</v>
+        <v>1518822</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,102 +2270,102 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>964</v>
+        <v>675</v>
       </c>
       <c r="D24" s="7">
-        <v>1039248</v>
+        <v>704516</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H24" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I24" s="7">
-        <v>1058848</v>
+        <v>933366</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M24" s="7">
-        <v>2479</v>
+        <v>1722</v>
       </c>
       <c r="N24" s="7">
-        <v>2098096</v>
+        <v>1637881</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="7">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D25" s="7">
-        <v>30734</v>
+        <v>25963</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="H25" s="7">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I25" s="7">
-        <v>24893</v>
+        <v>32519</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="N25" s="7">
-        <v>55628</v>
+        <v>58483</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,49 +2374,49 @@
         <v>20</v>
       </c>
       <c r="C26" s="7">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D26" s="7">
-        <v>20623</v>
+        <v>10616</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I26" s="7">
-        <v>6187</v>
+        <v>16887</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N26" s="7">
-        <v>26810</v>
+        <v>27502</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,202 +2425,202 @@
         <v>30</v>
       </c>
       <c r="C27" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D27" s="7">
-        <v>8686</v>
+        <v>16717</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H27" s="7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I27" s="7">
-        <v>8113</v>
+        <v>6513</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M27" s="7">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="N27" s="7">
-        <v>16799</v>
+        <v>23230</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="7">
-        <v>9298</v>
+        <v>5500</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="H28" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I28" s="7">
-        <v>6699</v>
+        <v>9955</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M28" s="7">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N28" s="7">
-        <v>15997</v>
+        <v>15455</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>174</v>
+        <v>21</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7">
         <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>3159</v>
+        <v>7568</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H29" s="7">
         <v>6</v>
       </c>
       <c r="I29" s="7">
-        <v>7043</v>
+        <v>4568</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>180</v>
+        <v>24</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
       </c>
       <c r="N29" s="7">
-        <v>10202</v>
+        <v>12136</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>181</v>
+        <v>36</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C30" s="7">
-        <v>620</v>
+        <v>935</v>
       </c>
       <c r="D30" s="7">
-        <v>656111</v>
+        <v>853398</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H30" s="7">
-        <v>998</v>
+        <v>1463</v>
       </c>
       <c r="I30" s="7">
-        <v>821435</v>
+        <v>1020224</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M30" s="7">
-        <v>1618</v>
+        <v>2398</v>
       </c>
       <c r="N30" s="7">
-        <v>1477547</v>
+        <v>1873621</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2752,102 +2629,102 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
-        <v>675</v>
+        <v>999</v>
       </c>
       <c r="D31" s="7">
-        <v>728612</v>
+        <v>919761</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H31" s="7">
-        <v>1047</v>
+        <v>1556</v>
       </c>
       <c r="I31" s="7">
-        <v>874371</v>
+        <v>1090666</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M31" s="7">
-        <v>1722</v>
+        <v>2555</v>
       </c>
       <c r="N31" s="7">
-        <v>1602983</v>
+        <v>2010427</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="7">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="D32" s="7">
-        <v>26745</v>
+        <v>111174</v>
       </c>
       <c r="E32" s="7" t="s">
         <v>194</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>177</v>
+        <v>76</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>195</v>
       </c>
       <c r="H32" s="7">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="I32" s="7">
-        <v>36641</v>
+        <v>113078</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>295</v>
+      </c>
+      <c r="N32" s="7">
+        <v>224253</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="M32" s="7">
-        <v>76</v>
-      </c>
-      <c r="N32" s="7">
-        <v>63386</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2856,49 +2733,49 @@
         <v>20</v>
       </c>
       <c r="C33" s="7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D33" s="7">
-        <v>11051</v>
+        <v>51381</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H33" s="7">
+        <v>52</v>
+      </c>
+      <c r="I33" s="7">
+        <v>40760</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="M33" s="7">
+        <v>104</v>
+      </c>
+      <c r="N33" s="7">
+        <v>92141</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H33" s="7">
-        <v>19</v>
-      </c>
-      <c r="I33" s="7">
-        <v>19966</v>
-      </c>
-      <c r="J33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="K33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M33" s="7">
-        <v>31</v>
-      </c>
-      <c r="N33" s="7">
-        <v>31017</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="Q33" s="7" t="s">
-        <v>158</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2907,202 +2784,202 @@
         <v>30</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D34" s="7">
-        <v>17566</v>
+        <v>37411</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>207</v>
+        <v>24</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="H34" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="I34" s="7">
-        <v>7217</v>
+        <v>23740</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="M34" s="7">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="N34" s="7">
-        <v>24783</v>
+        <v>61151</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>27</v>
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C35" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D35" s="7">
-        <v>5671</v>
+        <v>38109</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>213</v>
+        <v>51</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H35" s="7">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I35" s="7">
-        <v>11079</v>
+        <v>22845</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>215</v>
+        <v>132</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>70</v>
+        <v>209</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>216</v>
+        <v>114</v>
       </c>
       <c r="M35" s="7">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N35" s="7">
-        <v>16750</v>
+        <v>60953</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>7256</v>
+        <v>278232</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>25</v>
+        <v>211</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="H36" s="7">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="I36" s="7">
-        <v>5013</v>
+        <v>15192</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>86</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="M36" s="7">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="N36" s="7">
-        <v>12269</v>
+        <v>293424</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P36" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C37" s="7">
-        <v>935</v>
+        <v>3134</v>
       </c>
       <c r="D37" s="7">
-        <v>889559</v>
+        <v>2933993</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H37" s="7">
+        <v>5041</v>
+      </c>
+      <c r="I37" s="7">
+        <v>3439894</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="M37" s="7">
+        <v>8175</v>
+      </c>
+      <c r="N37" s="7">
+        <v>6373886</v>
+      </c>
+      <c r="O37" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="H37" s="7">
-        <v>1463</v>
-      </c>
-      <c r="I37" s="7">
-        <v>1065929</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M37" s="7">
-        <v>2398</v>
-      </c>
-      <c r="N37" s="7">
-        <v>1955488</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,421 +2988,61 @@
         <v>3</v>
       </c>
       <c r="C38" s="7">
-        <v>999</v>
+        <v>3366</v>
       </c>
       <c r="D38" s="7">
-        <v>957847</v>
+        <v>3450299</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="H38" s="7">
-        <v>1556</v>
+        <v>5354</v>
       </c>
       <c r="I38" s="7">
-        <v>1145846</v>
+        <v>3655510</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="M38" s="7">
-        <v>2555</v>
+        <v>8720</v>
       </c>
       <c r="N38" s="7">
-        <v>2103693</v>
+        <v>7105808</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="7">
-        <v>106</v>
-      </c>
-      <c r="D39" s="7">
-        <v>114039</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H39" s="7">
-        <v>189</v>
-      </c>
-      <c r="I39" s="7">
-        <v>125646</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="M39" s="7">
-        <v>295</v>
-      </c>
-      <c r="N39" s="7">
-        <v>239685</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="7">
-        <v>52</v>
-      </c>
-      <c r="D40" s="7">
-        <v>53180</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H40" s="7">
-        <v>52</v>
-      </c>
-      <c r="I40" s="7">
-        <v>45461</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M40" s="7">
-        <v>104</v>
-      </c>
-      <c r="N40" s="7">
-        <v>98641</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="7">
-        <v>30</v>
-      </c>
-      <c r="D41" s="7">
-        <v>39382</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="7">
-        <v>31</v>
-      </c>
-      <c r="I41" s="7">
-        <v>26722</v>
-      </c>
-      <c r="J41" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="M41" s="7">
-        <v>61</v>
-      </c>
-      <c r="N41" s="7">
-        <v>66103</v>
-      </c>
-      <c r="O41" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="7">
-        <v>29</v>
-      </c>
-      <c r="D42" s="7">
-        <v>38066</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="H42" s="7">
-        <v>24</v>
-      </c>
-      <c r="I42" s="7">
-        <v>26260</v>
-      </c>
-      <c r="J42" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K42" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L42" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M42" s="7">
-        <v>53</v>
-      </c>
-      <c r="N42" s="7">
-        <v>64326</v>
-      </c>
-      <c r="O42" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P42" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q42" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="7">
-        <v>15</v>
-      </c>
-      <c r="D43" s="7">
-        <v>78906</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="H43" s="7">
-        <v>17</v>
-      </c>
-      <c r="I43" s="7">
-        <v>16617</v>
-      </c>
-      <c r="J43" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="M43" s="7">
-        <v>32</v>
-      </c>
-      <c r="N43" s="7">
-        <v>95523</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="7">
-        <v>3134</v>
-      </c>
-      <c r="D44" s="7">
-        <v>3051637</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="H44" s="7">
-        <v>5041</v>
-      </c>
-      <c r="I44" s="7">
-        <v>3560106</v>
-      </c>
-      <c r="J44" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="M44" s="7">
-        <v>8175</v>
-      </c>
-      <c r="N44" s="7">
-        <v>6611743</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1"/>
-      <c r="B45" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="7">
-        <v>3366</v>
-      </c>
-      <c r="D45" s="7">
-        <v>3375211</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="7">
-        <v>5354</v>
-      </c>
-      <c r="I45" s="7">
-        <v>3800811</v>
-      </c>
-      <c r="J45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="M45" s="7">
-        <v>8720</v>
-      </c>
-      <c r="N45" s="7">
-        <v>7176022</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q45" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>267</v>
+      <c r="A39" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A18:A24"/>
     <mergeCell ref="A25:A31"/>
     <mergeCell ref="A32:A38"/>
-    <mergeCell ref="A39:A45"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
